--- a/报名信息/第一届开发者报名表.xlsx
+++ b/报名信息/第一届开发者报名表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\GameDevSolitaireNo1\报名信息\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LWX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26BF5C-409D-4D3E-AF92-63EDE6ED4786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B4DD9-619C-46AF-B5B2-727BB1685716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>编号</t>
   </si>
@@ -133,6 +133,29 @@
   </si>
   <si>
     <t>04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>耳听怒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/3546975494474074</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scratch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq781833086</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scratch也是引擎（</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +262,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -636,6 +662,29 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -643,6 +692,7 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{A4868B7E-BBD2-4C54-8042-AA3058FD1A79}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{E4453F1F-9ADB-4646-8765-2450A56A27DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
